--- a/JASON_BALDWIN.xlsx
+++ b/JASON_BALDWIN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -98,58 +101,94 @@
     <t xml:space="preserve">Weekly</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm 76401 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1427 1030 THOMAS BRIDGE RD, COFIELD, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHP-North</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALDWIN, JASON D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-286-0367</t>
+    <t xml:space="preserve">FARM 8132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1347 BARRETT CABIN RD, MURFREESBORO, VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP-East Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALDWIN, JASON D</t>
   </si>
   <si>
     <t xml:space="preserve">PICL02</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm 8132 - Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1347 BARRETT CABIN RD, MURFREESBORO, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:07pm</t>
+    <t xml:space="preserve">0.37152777777777773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 8134 - Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">750 LIVERMAN MILL RD, AHOSKIE, VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPG240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35416666666666669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 8151 - Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5285 PHILLIPS RD, SCOTLAND NECK, VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 8152 - Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7458 DOUGLAS HILL FARM RD, SCOTLAND NECK, VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47916666666666669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started 45/ml dose inseminations on 9/11/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 8511 - Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252-589-1826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1328 HIGH BRIDGE RD, SEABOARD, NC 27876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3888888888888889</t>
   </si>
   <si>
     <t xml:space="preserve">Farm 85361-Farrowing</t>
   </si>
   <si>
+    <t xml:space="preserve">252-534-1236</t>
+  </si>
+  <si>
     <t xml:space="preserve">364 GARIBALDI RD, JACKSON, VA</t>
   </si>
   <si>
-    <t xml:space="preserve">SPG240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51944444444444449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAREM FARMS INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1219, 246 SAREM RD, GATES, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildwood Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1211 LITTLE EGYPT RD, BLOUNTS CREEK, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31805555555555554</t>
+    <t xml:space="preserve">0.42222222222222222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilson Sow Farm 87221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1133 MOORING RD, TARBORO, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21875</t>
   </si>
 </sst>
 </file>
@@ -486,34 +525,35 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="21.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="42.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="17.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="44.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="18.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="16.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="8.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="43.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -595,302 +635,418 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>7069</v>
+        <v>7093</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>76401</v>
+        <v>81321</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
         <v>32</v>
       </c>
+      <c r="J2"/>
       <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="n">
-        <v>184</v>
-      </c>
-      <c r="M2"/>
+      <c r="L2"/>
+      <c r="M2" t="n">
+        <v>110</v>
+      </c>
       <c r="N2"/>
       <c r="O2"/>
-      <c r="P2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Q2"/>
+      <c r="P2"/>
+      <c r="Q2" t="n">
+        <v>22</v>
+      </c>
       <c r="R2"/>
       <c r="S2"/>
-      <c r="T2" t="n">
+      <c r="T2"/>
+      <c r="U2" t="n">
+        <v>28</v>
+      </c>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2" t="n">
+        <v>160</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
         <v>34</v>
       </c>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2" t="n">
-        <v>266</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.31304347826087</v>
-      </c>
-      <c r="Y2"/>
-      <c r="Z2"/>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>7069</v>
+        <v>7093</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>81321</v>
+        <v>81341</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
         <v>32</v>
       </c>
+      <c r="J3"/>
       <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="n">
-        <v>102</v>
-      </c>
-      <c r="M3"/>
+        <v>37</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3" t="n">
+        <v>85</v>
+      </c>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3" t="n">
-        <v>72</v>
-      </c>
-      <c r="Q3"/>
+      <c r="P3"/>
+      <c r="Q3" t="n">
+        <v>15</v>
+      </c>
       <c r="R3"/>
       <c r="S3"/>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3"/>
+      <c r="T3"/>
+      <c r="U3" t="n">
+        <v>60</v>
+      </c>
       <c r="V3"/>
-      <c r="W3" t="n">
-        <v>174</v>
-      </c>
+      <c r="W3"/>
       <c r="X3" t="n">
-        <v>1.95505617977528</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z3"/>
+        <v>160</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.05128205128205</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>7069</v>
+        <v>7093</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>85361</v>
+        <v>81511</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
         <v>32</v>
       </c>
+      <c r="J4"/>
       <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" t="n">
-        <v>160</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4" t="n">
-        <v>120</v>
-      </c>
-      <c r="Q4"/>
+      <c r="P4"/>
+      <c r="Q4" t="n">
+        <v>421</v>
+      </c>
       <c r="R4"/>
       <c r="S4"/>
-      <c r="T4" t="n">
-        <v>100</v>
-      </c>
-      <c r="U4"/>
+      <c r="T4"/>
+      <c r="U4" t="n">
+        <v>566</v>
+      </c>
       <c r="V4"/>
-      <c r="W4" t="n">
-        <v>380</v>
-      </c>
+      <c r="W4"/>
       <c r="X4" t="n">
-        <v>2.27544910179641</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4"/>
+        <v>987</v>
+      </c>
+      <c r="Y4"/>
+      <c r="Z4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>7069</v>
+        <v>7093</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>78381</v>
+        <v>81521</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
         <v>32</v>
       </c>
+      <c r="J5"/>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" t="n">
-        <v>165</v>
-      </c>
+      <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5" t="n">
-        <v>140</v>
-      </c>
+      <c r="Q5" t="n">
+        <v>340</v>
+      </c>
+      <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5" t="n">
-        <v>180</v>
-      </c>
-      <c r="W5" t="n">
-        <v>485</v>
-      </c>
+      <c r="U5" t="n">
+        <v>651</v>
+      </c>
+      <c r="V5"/>
+      <c r="W5"/>
       <c r="X5" t="n">
-        <v>2.15555555555556</v>
+        <v>991</v>
       </c>
       <c r="Y5"/>
-      <c r="Z5"/>
+      <c r="Z5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>7069</v>
+        <v>7093</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>62441</v>
-      </c>
-      <c r="F6"/>
+        <v>85111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
         <v>32</v>
       </c>
+      <c r="J6"/>
       <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="n">
-        <v>220</v>
-      </c>
-      <c r="M6"/>
+        <v>37</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="n">
+        <v>130</v>
+      </c>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6" t="n">
-        <v>48</v>
-      </c>
-      <c r="Q6"/>
+      <c r="P6"/>
+      <c r="Q6" t="n">
+        <v>50</v>
+      </c>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" t="n">
-        <v>207</v>
-      </c>
-      <c r="U6"/>
+      <c r="T6"/>
+      <c r="U6" t="n">
+        <v>180</v>
+      </c>
       <c r="V6"/>
-      <c r="W6" t="n">
-        <v>475</v>
-      </c>
+      <c r="W6"/>
       <c r="X6" t="n">
-        <v>2.02991452991453</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6"/>
+        <v>360</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.35294117647059</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7093</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="n">
+        <v>85361</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="n">
+        <v>94</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" t="n">
+        <v>20</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7" t="n">
+        <v>250</v>
+      </c>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7" t="n">
+        <v>364</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.42666666666667</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7093</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="n">
+        <v>87221</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8" t="n">
+        <v>600</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8" t="n">
+        <v>390</v>
+      </c>
+      <c r="X8" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.12253829321663</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
